--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_ININ.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1204_ININ.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F78EEBE-C1FA-495F-B4B0-1A0C3DC7A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A688FE5-9DD8-42D2-926E-80A6832B43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0E662D93-C57C-4006-83F4-B9C9A1C42792}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1905030_PDF" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956637_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>þÿ</t>
   </si>
@@ -100,12 +100,45 @@
     <t>60" BLACK</t>
   </si>
   <si>
+    <t>INTERLINING, RGW 718</t>
+  </si>
+  <si>
+    <t>60", OFF WHITE</t>
+  </si>
+  <si>
+    <t>RGP 820</t>
+  </si>
+  <si>
+    <t>60",BLACK</t>
+  </si>
+  <si>
+    <t>INTERLINING, TRICOT JERUK, 60'</t>
+  </si>
+  <si>
+    <t>COL, BLACK</t>
+  </si>
+  <si>
+    <t>RGP 637</t>
+  </si>
+  <si>
+    <t>60", WHITE</t>
+  </si>
+  <si>
+    <t>INTERLINING PCC ENF 17</t>
+  </si>
+  <si>
+    <t>60", BLACK</t>
+  </si>
+  <si>
     <t>INTERLINING,PCC,VG50</t>
   </si>
   <si>
     <t>WHITE,60"</t>
   </si>
   <si>
+    <t>60", CHARCOAL</t>
+  </si>
+  <si>
     <t>INTERLINING</t>
   </si>
   <si>
@@ -115,19 +148,64 @@
     <t>MT</t>
   </si>
   <si>
+    <t>INTERLINING, S5555</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>INTERLINING, IDL71</t>
+  </si>
+  <si>
+    <t>60", COL. CHARCOAL</t>
+  </si>
+  <si>
+    <t>INTERLINING, S9864, 40"</t>
+  </si>
+  <si>
+    <t>COL. WHITE</t>
+  </si>
+  <si>
     <t>100% POLY INTERLINING COLLAR</t>
   </si>
   <si>
     <t>SS-85, WHITE</t>
   </si>
   <si>
+    <t>44", C8505 WHITE</t>
+  </si>
+  <si>
+    <t>40", WHITE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSIBLE INTERLINING	</t>
   </si>
   <si>
-    <t>WHITE</t>
-  </si>
-  <si>
     <t>BLACK</t>
+  </si>
+  <si>
+    <t>40", CHARCOAL</t>
+  </si>
+  <si>
+    <t>FABRIC ADHSV SHET,148CM,COL.WT</t>
+  </si>
+  <si>
+    <t>FM-999-3008,6010143-MF100W-CH</t>
+  </si>
+  <si>
+    <t>POCKET LINING, BELACU, 1.5MT</t>
+  </si>
+  <si>
+    <t>60%PLY40%VSCOS RYN 254NON-WOVN</t>
+  </si>
+  <si>
+    <t>999-18005,47G,100CM,001640 BLA</t>
+  </si>
+  <si>
+    <t>100% VISCOSE RAYON INTERLINING</t>
+  </si>
+  <si>
+    <t>AO156, 100 CM</t>
   </si>
   <si>
     <t>Range Category :</t>
@@ -157,19 +235,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -182,99 +262,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -682,7 +777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -970,44 +1065,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34BC31B-BFD1-46BA-B3DD-DD6380B55B3C}">
-  <dimension ref="A1:T24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45666</v>
+        <v>45721</v>
       </c>
       <c r="T1" s="2">
-        <v>0.90254629629629635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.61215277777777777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>3</v>
       </c>
@@ -1015,12 +1108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1204</v>
       </c>
@@ -1028,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>159672</v>
       </c>
@@ -1104,19 +1197,19 @@
         <v>50.5</v>
       </c>
       <c r="M11">
-        <v>55.67</v>
+        <v>55.68</v>
       </c>
       <c r="P11" t="s">
         <v>23</v>
       </c>
       <c r="R11">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>221245</v>
       </c>
@@ -1133,21 +1226,21 @@
         <v>-553.75</v>
       </c>
       <c r="M12">
-        <v>-375.86</v>
+        <v>-375.88</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
       <c r="R12">
-        <v>650</v>
+        <v>709</v>
       </c>
       <c r="T12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>269477</v>
+        <v>231007</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1155,28 +1248,13 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="1">
-        <v>45027</v>
-      </c>
-      <c r="K13">
-        <v>-1322.96</v>
-      </c>
-      <c r="M13">
-        <v>-896.61</v>
-      </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
-      <c r="R13">
-        <v>631</v>
-      </c>
-      <c r="T13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>273696</v>
+        <v>231014</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1184,183 +1262,517 @@
       <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="1">
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>231327</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>232401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>267890</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45705</v>
+      </c>
+      <c r="K17">
+        <v>-382</v>
+      </c>
+      <c r="M17">
+        <v>-106.74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>269431</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>269477</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45027</v>
+      </c>
+      <c r="K19">
+        <v>-1322.96</v>
+      </c>
+      <c r="M19">
+        <v>-896.62</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19">
+        <v>690</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>273516</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>273696</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="1">
         <v>45307</v>
       </c>
-      <c r="K14">
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="M14">
+      <c r="M21">
         <v>11.15</v>
       </c>
-      <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14">
-        <v>351</v>
-      </c>
-      <c r="T14">
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21">
+        <v>410</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>284004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>288050</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>289092</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>292076</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45128</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25">
+        <v>589</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>295584</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45699</v>
+      </c>
+      <c r="K26">
+        <v>330</v>
+      </c>
+      <c r="M26">
+        <v>446.52</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>18</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>296442</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27">
+        <v>-610</v>
+      </c>
+      <c r="M27">
+        <v>-116.43</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>300265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45497</v>
+      </c>
+      <c r="K28">
+        <v>569</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28">
+        <v>220</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>292076</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45128</v>
-      </c>
-      <c r="P15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15">
-        <v>530</v>
-      </c>
-      <c r="T15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>300266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45506</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29">
+        <v>211</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>303759</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30">
+        <v>-600</v>
+      </c>
+      <c r="M30">
+        <v>-111.84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>305289</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>305832</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45689</v>
+      </c>
+      <c r="K32">
+        <v>249.05</v>
+      </c>
+      <c r="M32">
+        <v>140.99</v>
+      </c>
+      <c r="P32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32">
+        <v>28</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>306492</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45700</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33">
+        <v>17</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>306815</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45700</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34">
+        <v>17</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>32874</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>300265</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45497</v>
-      </c>
-      <c r="K16">
-        <v>569</v>
-      </c>
-      <c r="P16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16">
-        <v>161</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>300266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45506</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17">
-        <v>152</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>32874</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41">
         <v>6</v>
       </c>
     </row>
